--- a/analise_swot.xlsx
+++ b/analise_swot.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Documents\_PESSOAL\_Fatec\Projeto Integrador\repositório\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B050E367-8051-4891-B8CC-7F26B3A87C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="5100" yWindow="16080" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Estratégia_Crescimento" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Estratégias de enfrentamento" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Estratégias de Melhoria" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Estratégia de Defesa" sheetId="4" r:id="rId7"/>
+    <sheet name="Estratégia_Crescimento" sheetId="1" r:id="rId1"/>
+    <sheet name="Estratégias de enfrentamento" sheetId="2" r:id="rId2"/>
+    <sheet name="Estratégias de Melhoria" sheetId="3" r:id="rId3"/>
+    <sheet name="Estratégia de Defesa" sheetId="4" r:id="rId4"/>
+    <sheet name="BSC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="BMvslTTIGAX/IW/u+GHGlE/+eL+uzxzKq4cYmZga1KY="/>
     </ext>
@@ -19,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="132">
   <si>
     <t>Forças</t>
   </si>
@@ -38,18 +57,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Tendência de crescimento do uso de horas de aplicativos online, com perspectivas de CAGR de 7% ao ano.
 Fonte: </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Aptos Narrow"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
       </rPr>
       <t>https://g4educacao.com/portal/state-of-mobile-2023</t>
     </r>
@@ -159,9 +178,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Expansão da base de usuários acrescentando novas regiões a plataforma. 
 Sorocaba/Votorantim - 851605 habitantes.
@@ -170,9 +190,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>https://rms.pdui.sp.gov.br</t>
     </r>
@@ -193,27 +214,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">O uso de Big Data para mapas inteligentes tem crescido de forma significativa, proporcionando oportunidades em áreas como gestão urbana, transporte, meio ambiente e segurança. Ao integrar dados massivos em tempo real com sistemas de mapas, é possível obter insights profundos e criar soluções inovadoras.
 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Fonte:www.mordorintelligence.com/pt/industry-reports/Brasil-big-data-analíticas-market</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -287,66 +311,334 @@
 Relevante: Impacta diretamente o engajamento e quebra objeções. 
 Temporal: Nos próximos 6 meses.</t>
   </si>
+  <si>
+    <t>Por Que?</t>
+  </si>
+  <si>
+    <t>Como?</t>
+  </si>
+  <si>
+    <t>Quanto Custa?</t>
+  </si>
+  <si>
+    <t>Quem?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>Quando?</t>
+  </si>
+  <si>
+    <t>O que?</t>
+  </si>
+  <si>
+    <t>Vision Lar</t>
+  </si>
+  <si>
+    <t>Desenvolver e patentear uma inovação tecnológica disruptiva.</t>
+  </si>
+  <si>
+    <t>Proteger a posição da empresa e se destacar em relação aos concorrentes.</t>
+  </si>
+  <si>
+    <t>Internamente</t>
+  </si>
+  <si>
+    <t>18 meses</t>
+  </si>
+  <si>
+    <t>Equipe de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Pesquisa contínua e processo de patente no órgão competente.</t>
+  </si>
+  <si>
+    <t>Criar planos de carreira personalizados para todos os funcionários.</t>
+  </si>
+  <si>
+    <t>9 meses</t>
+  </si>
+  <si>
+    <t>Departamento de RH</t>
+  </si>
+  <si>
+    <t>gerentes e colaboradores</t>
+  </si>
+  <si>
+    <t>Oferecer clareza sobre as oportunidades de crescimento e motivar os colaboradores.</t>
+  </si>
+  <si>
+    <t>Através de sessões individuais de planejamento de carreira com apoio dos gestores.</t>
+  </si>
+  <si>
+    <t>Aumentar a taxa de conversão de visitantes do site em 15% por meio de uma assistente virtual proativa.</t>
+  </si>
+  <si>
+    <t>Melhorar o engajamento dos visitantes, orientar a jornada do cliente e reduzir objeções durante o processo de conversão.</t>
+  </si>
+  <si>
+    <t>Site da Visionlar</t>
+  </si>
+  <si>
+    <t>6 meses</t>
+  </si>
+  <si>
+    <t>Equipe de Ti e Marketing</t>
+  </si>
+  <si>
+    <t>Implementar uma assistente virtual proativa, com monitoramento contínuo de desempenho</t>
+  </si>
+  <si>
+    <t>Contratar 5 desenvolvedores full-stack seniores.</t>
+  </si>
+  <si>
+    <t>Aumentar a produtividade e a capacidade de entrega da equipe.</t>
+  </si>
+  <si>
+    <t>RH e gestores de TI.</t>
+  </si>
+  <si>
+    <t>Até janeiro de 2026.</t>
+  </si>
+  <si>
+    <t>Com um processo de recrutamento eficiente e avaliações técnicas rigorosas.</t>
+  </si>
+  <si>
+    <t>200.000,00 em salários, benefícios e custos de recrutamento.</t>
+  </si>
+  <si>
+    <t>Lançar um programa de mentoria com 5 pares mentor-mentorado.</t>
+  </si>
+  <si>
+    <t>Até o final de 2024.</t>
+  </si>
+  <si>
+    <t>Presencial, Visionlar</t>
+  </si>
+  <si>
+    <t>RH, lideranças e os participantes selecionados como mentores e mentorados.</t>
+  </si>
+  <si>
+    <t>Complementar o aprendizado individual com o desenvolvimento de habilidades colaborativas.</t>
+  </si>
+  <si>
+    <t>Com seleção criteriosa, alinhamento de expectativas e acompanhamento contínuo.</t>
+  </si>
+  <si>
+    <t>50.000,00.</t>
+  </si>
+  <si>
+    <t>Implementar um programa de embaixadores da marca, com 20 clientes compartilhando vídeos sobre suas experiências positivas.</t>
+  </si>
+  <si>
+    <t>Nos próximos 6 meses.</t>
+  </si>
+  <si>
+    <t>redes sociais e plataformas digitais</t>
+  </si>
+  <si>
+    <t>Marketing, Relações Públicas e os embaixadores recrutados.</t>
+  </si>
+  <si>
+    <t>Melhorar a visibilidade e percepção positiva da marca.</t>
+  </si>
+  <si>
+    <t>Através de vídeos compartilhados por clientes fiéis, com uma estratégia de divulgação digital eficiente.</t>
+  </si>
+  <si>
+    <t>80.000,00.</t>
+  </si>
+  <si>
+    <t>Realizar um evento anual exclusivo para fornecedores-chave.</t>
+  </si>
+  <si>
+    <t>Em 2026.</t>
+  </si>
+  <si>
+    <t>Em local estratégico para facilitar networking e discussões.</t>
+  </si>
+  <si>
+    <t>Organizado pelo time comercial, com participação de lideranças e fornecedores.</t>
+  </si>
+  <si>
+    <t>Fortalecer relacionamentos e promover colaboração estratégica.</t>
+  </si>
+  <si>
+    <t>Com palestras, workshops e reuniões individuais para reforçar parcerias.</t>
+  </si>
+  <si>
+    <t>R$ 100.000,00.</t>
+  </si>
+  <si>
+    <t>Implementar um sistema automatizado de validação e verificação de dados.</t>
+  </si>
+  <si>
+    <t>Até dezembro de 2025.</t>
+  </si>
+  <si>
+    <t>100.000,00.</t>
+  </si>
+  <si>
+    <t>Analisar os fluxos, implementar algoritmos de validação e realizar monitoramento contínuo.</t>
+  </si>
+  <si>
+    <t>Melhorar a qualidade dos dados e garantir a confiabilidade das informações processadas.</t>
+  </si>
+  <si>
+    <t>Time de tecnologia, com suporte das áreas de negócio e governança de dados.</t>
+  </si>
+  <si>
+    <t>Departamento de TI</t>
+  </si>
+  <si>
+    <t>Estabelecer parcerias com 2 instituições acadêmicas para pesquisas sobre tendências futuras na UX.</t>
+  </si>
+  <si>
+    <t>universidades e centros de pesquisa especializados.</t>
+  </si>
+  <si>
+    <t>Equipe de Inovação</t>
+  </si>
+  <si>
+    <t>Acessar pesquisas inovadoras e talentos acadêmicos, promovendo avanços na experiência do usuário.</t>
+  </si>
+  <si>
+    <t>Identificar, propor e formalizar parcerias, iniciando projetos conjuntos.</t>
+  </si>
+  <si>
+    <t>Desenvolver e lançar uma funcionalidade de gamificação no aplicativo.</t>
+  </si>
+  <si>
+    <t>Aumentar o engajamento e a retenção dos usuários, promovendo maior interação.</t>
+  </si>
+  <si>
+    <t>aplicativo da empresa</t>
+  </si>
+  <si>
+    <t>Equipe especializada em gamificação e geolocalização, contratada até janeiro de 2027.</t>
+  </si>
+  <si>
+    <t>Criar mecânicas de jogo interativas, testar internamente e monitorar o engajamento pós-lançamento.</t>
+  </si>
+  <si>
+    <t>Lançar a versão beta de exploração virtual para 5 parques populares de Sorocaba e Votorantim.</t>
+  </si>
+  <si>
+    <t>terceiro trimestre de 2027.</t>
+  </si>
+  <si>
+    <t>Equipe de TI, design e marketing</t>
+  </si>
+  <si>
+    <t>ferecer conteúdo de alta qualidade e engajar os usuários com uma experiência digital imersiva.</t>
+  </si>
+  <si>
+    <t>Coleta de dados, tours 360º e implementação em formato beta para feedback e ajustes.</t>
+  </si>
+  <si>
+    <t>Implementar uma funcionalidade de personalização de dashboards com pelo menos 3 widgets de dados.</t>
+  </si>
+  <si>
+    <t>terceiro trimestre de 2025.</t>
+  </si>
+  <si>
+    <t>Equipe de TI e UX</t>
+  </si>
+  <si>
+    <t>Aumentar o engajamento ao permitir que os usuários escolham e organizem os dados relevantes para eles.</t>
+  </si>
+  <si>
+    <t>Revisão do dashboard atual, desenvolvimento de widgets personalizáveis e testes com usuários.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF4B4B4C"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF4B4B4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,109 +646,117 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -646,27 +946,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="76.25"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="76.25" customWidth="1"/>
+    <col min="5" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +985,29 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="138.75" customHeight="1">
+    <row r="2" spans="1:11" ht="138.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,8 +1020,29 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="25">
+        <v>47270</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="24">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="213.75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,8 +1055,29 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" ht="192.0" customHeight="1">
+    <row r="4" spans="1:11" ht="192" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -721,19 +1090,40 @@
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="23">
+        <v>200000</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1719,31 +2109,35 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="39.5"/>
-    <col customWidth="1" min="4" max="4" width="68.38"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +2150,29 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="145.5" customHeight="1">
+    <row r="2" spans="1:11" ht="145.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1770,8 +2185,29 @@
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" ht="129.0" customHeight="1">
+    <row r="3" spans="1:11" ht="129" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1784,8 +2220,29 @@
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" ht="126.0" customHeight="1">
+    <row r="4" spans="1:11" ht="126" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1798,19 +2255,40 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2795,32 +3273,36 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="48.25"/>
-    <col customWidth="1" min="5" max="5" width="38.75"/>
-    <col customWidth="1" min="6" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2833,8 +3315,29 @@
       <c r="D1" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="132.0" customHeight="1">
+    <row r="2" spans="1:11" ht="132" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
@@ -2847,8 +3350,29 @@
       <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="228">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -2861,8 +3385,29 @@
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" ht="170.25" customHeight="1">
+    <row r="4" spans="1:11" ht="170.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -2875,23 +3420,43 @@
       <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3876,31 +4441,36 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="55.38"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="55.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3913,41 +4483,97 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="171.0" customHeight="1">
+    <row r="2" spans="1:26" ht="171" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="24">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="3" ht="112.5" customHeight="1">
+    <row r="3" spans="1:26" ht="112.5" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="E3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="24">
+        <v>10000</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -3964,34 +4590,55 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" ht="120.0" customHeight="1">
+    <row r="4" spans="1:26" ht="120" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="23">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4976,9 +5623,21 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6196887-A6AA-44C7-AE73-A408AE87AB89}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/analise_swot.xlsx
+++ b/analise_swot.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Documents\_PESSOAL\_Fatec\Projeto Integrador\repositório - Copia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25740969-9104-4B87-9897-EBFB6320361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Estratégia_Crescimento" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Estratégias de enfrentamento" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Estratégias de Melhoria" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Estratégia de Defesa" sheetId="4" r:id="rId7"/>
+    <sheet name="Estratégia_Crescimento" sheetId="1" r:id="rId1"/>
+    <sheet name="Estratégias de enfrentamento" sheetId="2" r:id="rId2"/>
+    <sheet name="Estratégias de Melhoria" sheetId="3" r:id="rId3"/>
+    <sheet name="Estratégia de Defesa" sheetId="4" r:id="rId4"/>
+    <sheet name="BSC" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="BMvslTTIGAX/IW/u+GHGlE/+eL+uzxzKq4cYmZga1KY="/>
     </ext>
@@ -19,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>Forças</t>
   </si>
@@ -38,18 +57,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Tendência de crescimento do uso de horas de aplicativos online, com perspectivas de CAGR de 7% ao ano.
 Fonte: </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="Aptos Narrow"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
       </rPr>
       <t>https://g4educacao.com/portal/state-of-mobile-2023</t>
     </r>
@@ -159,9 +178,10 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Expansão da base de usuários acrescentando novas regiões a plataforma. 
 Sorocaba/Votorantim - 851605 habitantes.
@@ -170,9 +190,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>https://rms.pdui.sp.gov.br</t>
     </r>
@@ -193,27 +214,30 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">O uso de Big Data para mapas inteligentes tem crescido de forma significativa, proporcionando oportunidades em áreas como gestão urbana, transporte, meio ambiente e segurança. Ao integrar dados massivos em tempo real com sistemas de mapas, é possível obter insights profundos e criar soluções inovadoras.
 </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>Fonte:www.mordorintelligence.com/pt/industry-reports/Brasil-big-data-analíticas-market</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF4B4B4C"/>
         <rFont val="Arial"/>
-        <color rgb="FF4B4B4C"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -287,176 +311,749 @@
 Relevante: Impacta diretamente o engajamento e quebra objeções. 
 Temporal: Nos próximos 6 meses.</t>
   </si>
+  <si>
+    <t>Por Que?</t>
+  </si>
+  <si>
+    <t>Como?</t>
+  </si>
+  <si>
+    <t>Quanto Custa?</t>
+  </si>
+  <si>
+    <t>Quem?</t>
+  </si>
+  <si>
+    <t>Onde?</t>
+  </si>
+  <si>
+    <t>Quando?</t>
+  </si>
+  <si>
+    <t>O que?</t>
+  </si>
+  <si>
+    <t>Vision Lar</t>
+  </si>
+  <si>
+    <t>Desenvolver e patentear uma inovação tecnológica disruptiva.</t>
+  </si>
+  <si>
+    <t>Proteger a posição da empresa e se destacar em relação aos concorrentes.</t>
+  </si>
+  <si>
+    <t>Internamente</t>
+  </si>
+  <si>
+    <t>18 meses</t>
+  </si>
+  <si>
+    <t>Equipe de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Pesquisa contínua e processo de patente no órgão competente.</t>
+  </si>
+  <si>
+    <t>Criar planos de carreira personalizados para todos os funcionários.</t>
+  </si>
+  <si>
+    <t>9 meses</t>
+  </si>
+  <si>
+    <t>Departamento de RH</t>
+  </si>
+  <si>
+    <t>gerentes e colaboradores</t>
+  </si>
+  <si>
+    <t>Oferecer clareza sobre as oportunidades de crescimento e motivar os colaboradores.</t>
+  </si>
+  <si>
+    <t>Através de sessões individuais de planejamento de carreira com apoio dos gestores.</t>
+  </si>
+  <si>
+    <t>Aumentar a taxa de conversão de visitantes do site em 15% por meio de uma assistente virtual proativa.</t>
+  </si>
+  <si>
+    <t>Melhorar o engajamento dos visitantes, orientar a jornada do cliente e reduzir objeções durante o processo de conversão.</t>
+  </si>
+  <si>
+    <t>Site da Visionlar</t>
+  </si>
+  <si>
+    <t>6 meses</t>
+  </si>
+  <si>
+    <t>Equipe de Ti e Marketing</t>
+  </si>
+  <si>
+    <t>Implementar uma assistente virtual proativa, com monitoramento contínuo de desempenho</t>
+  </si>
+  <si>
+    <t>Contratar 5 desenvolvedores full-stack seniores.</t>
+  </si>
+  <si>
+    <t>Aumentar a produtividade e a capacidade de entrega da equipe.</t>
+  </si>
+  <si>
+    <t>RH e gestores de TI.</t>
+  </si>
+  <si>
+    <t>Até janeiro de 2026.</t>
+  </si>
+  <si>
+    <t>Com um processo de recrutamento eficiente e avaliações técnicas rigorosas.</t>
+  </si>
+  <si>
+    <t>200.000,00 em salários, benefícios e custos de recrutamento.</t>
+  </si>
+  <si>
+    <t>Lançar um programa de mentoria com 5 pares mentor-mentorado.</t>
+  </si>
+  <si>
+    <t>Até o final de 2024.</t>
+  </si>
+  <si>
+    <t>Presencial, Visionlar</t>
+  </si>
+  <si>
+    <t>RH, lideranças e os participantes selecionados como mentores e mentorados.</t>
+  </si>
+  <si>
+    <t>Complementar o aprendizado individual com o desenvolvimento de habilidades colaborativas.</t>
+  </si>
+  <si>
+    <t>Com seleção criteriosa, alinhamento de expectativas e acompanhamento contínuo.</t>
+  </si>
+  <si>
+    <t>50.000,00.</t>
+  </si>
+  <si>
+    <t>Implementar um programa de embaixadores da marca, com 20 clientes compartilhando vídeos sobre suas experiências positivas.</t>
+  </si>
+  <si>
+    <t>Nos próximos 6 meses.</t>
+  </si>
+  <si>
+    <t>redes sociais e plataformas digitais</t>
+  </si>
+  <si>
+    <t>Marketing, Relações Públicas e os embaixadores recrutados.</t>
+  </si>
+  <si>
+    <t>Melhorar a visibilidade e percepção positiva da marca.</t>
+  </si>
+  <si>
+    <t>Através de vídeos compartilhados por clientes fiéis, com uma estratégia de divulgação digital eficiente.</t>
+  </si>
+  <si>
+    <t>80.000,00.</t>
+  </si>
+  <si>
+    <t>Realizar um evento anual exclusivo para fornecedores-chave.</t>
+  </si>
+  <si>
+    <t>Em 2026.</t>
+  </si>
+  <si>
+    <t>Em local estratégico para facilitar networking e discussões.</t>
+  </si>
+  <si>
+    <t>Organizado pelo time comercial, com participação de lideranças e fornecedores.</t>
+  </si>
+  <si>
+    <t>Fortalecer relacionamentos e promover colaboração estratégica.</t>
+  </si>
+  <si>
+    <t>Com palestras, workshops e reuniões individuais para reforçar parcerias.</t>
+  </si>
+  <si>
+    <t>R$ 100.000,00.</t>
+  </si>
+  <si>
+    <t>Implementar um sistema automatizado de validação e verificação de dados.</t>
+  </si>
+  <si>
+    <t>Até dezembro de 2025.</t>
+  </si>
+  <si>
+    <t>100.000,00.</t>
+  </si>
+  <si>
+    <t>Analisar os fluxos, implementar algoritmos de validação e realizar monitoramento contínuo.</t>
+  </si>
+  <si>
+    <t>Melhorar a qualidade dos dados e garantir a confiabilidade das informações processadas.</t>
+  </si>
+  <si>
+    <t>Time de tecnologia, com suporte das áreas de negócio e governança de dados.</t>
+  </si>
+  <si>
+    <t>Departamento de TI</t>
+  </si>
+  <si>
+    <t>Estabelecer parcerias com 2 instituições acadêmicas para pesquisas sobre tendências futuras na UX.</t>
+  </si>
+  <si>
+    <t>universidades e centros de pesquisa especializados.</t>
+  </si>
+  <si>
+    <t>Equipe de Inovação</t>
+  </si>
+  <si>
+    <t>Acessar pesquisas inovadoras e talentos acadêmicos, promovendo avanços na experiência do usuário.</t>
+  </si>
+  <si>
+    <t>Identificar, propor e formalizar parcerias, iniciando projetos conjuntos.</t>
+  </si>
+  <si>
+    <t>Desenvolver e lançar uma funcionalidade de gamificação no aplicativo.</t>
+  </si>
+  <si>
+    <t>Aumentar o engajamento e a retenção dos usuários, promovendo maior interação.</t>
+  </si>
+  <si>
+    <t>aplicativo da empresa</t>
+  </si>
+  <si>
+    <t>Equipe especializada em gamificação e geolocalização, contratada até janeiro de 2027.</t>
+  </si>
+  <si>
+    <t>Criar mecânicas de jogo interativas, testar internamente e monitorar o engajamento pós-lançamento.</t>
+  </si>
+  <si>
+    <t>Lançar a versão beta de exploração virtual para 5 parques populares de Sorocaba e Votorantim.</t>
+  </si>
+  <si>
+    <t>terceiro trimestre de 2027.</t>
+  </si>
+  <si>
+    <t>Equipe de TI, design e marketing</t>
+  </si>
+  <si>
+    <t>ferecer conteúdo de alta qualidade e engajar os usuários com uma experiência digital imersiva.</t>
+  </si>
+  <si>
+    <t>Coleta de dados, tours 360º e implementação em formato beta para feedback e ajustes.</t>
+  </si>
+  <si>
+    <t>Implementar uma funcionalidade de personalização de dashboards com pelo menos 3 widgets de dados.</t>
+  </si>
+  <si>
+    <t>terceiro trimestre de 2025.</t>
+  </si>
+  <si>
+    <t>Equipe de TI e UX</t>
+  </si>
+  <si>
+    <t>Aumentar o engajamento ao permitir que os usuários escolham e organizem os dados relevantes para eles.</t>
+  </si>
+  <si>
+    <t>Revisão do dashboard atual, desenvolvimento de widgets personalizáveis e testes com usuários.</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Perspectiva Financeira</t>
+  </si>
+  <si>
+    <t>Perspectiva de Processos Internos</t>
+  </si>
+  <si>
+    <t>Perspectiva de Aprendizado e Crescimento</t>
+  </si>
+  <si>
+    <t>Perspectiva de Clientes</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Metas</t>
+  </si>
+  <si>
+    <t>Iniciativas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="15">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF4B4B4C"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF4B4B4C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Bodoni MT"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Seta: para a Esquerda e para Cima 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7515E8-F40B-49EC-BE84-4EBD6933AF57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1552573" y="1123950"/>
+          <a:ext cx="190501" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Seta: para a Esquerda e para Cima 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB71E225-6555-464A-99DD-0BF0A164D2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1343023" y="6305550"/>
+          <a:ext cx="190501" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -646,27 +1243,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.13"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="76.25"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="76.25" customWidth="1"/>
+    <col min="5" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +1282,29 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="138.75" customHeight="1">
+    <row r="2" spans="1:11" ht="138.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,8 +1317,29 @@
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="25">
+        <v>47270</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="24">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="213.75">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -707,8 +1352,29 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" ht="192.0" customHeight="1">
+    <row r="4" spans="1:11" ht="192" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -721,19 +1387,40 @@
       <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="23">
+        <v>200000</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1719,31 +2406,35 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="39.5"/>
-    <col customWidth="1" min="4" max="4" width="68.38"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,8 +2447,29 @@
       <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="145.5" customHeight="1">
+    <row r="2" spans="1:11" ht="145.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1770,8 +2482,29 @@
       <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="3" ht="129.0" customHeight="1">
+    <row r="3" spans="1:11" ht="129" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1784,8 +2517,29 @@
       <c r="D3" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" ht="126.0" customHeight="1">
+    <row r="4" spans="1:11" ht="126" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1798,19 +2552,40 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2795,32 +3570,36 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="48.25"/>
-    <col customWidth="1" min="5" max="5" width="38.75"/>
-    <col customWidth="1" min="6" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2833,8 +3612,29 @@
       <c r="D1" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="132.0" customHeight="1">
+    <row r="2" spans="1:11" ht="132" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
@@ -2847,8 +3647,29 @@
       <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="228">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
@@ -2861,8 +3682,29 @@
       <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="E3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" ht="170.25" customHeight="1">
+    <row r="4" spans="1:11" ht="170.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
@@ -2875,23 +3717,43 @@
       <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="14.25">
       <c r="A5" s="14"/>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -3876,31 +4738,36 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.0"/>
-    <col customWidth="1" min="2" max="2" width="33.75"/>
-    <col customWidth="1" min="3" max="3" width="33.63"/>
-    <col customWidth="1" min="4" max="4" width="55.38"/>
-    <col customWidth="1" min="5" max="26" width="8.63"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="55.375" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -3913,41 +4780,97 @@
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" ht="171.0" customHeight="1">
+    <row r="2" spans="1:26" ht="171" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="24">
+        <v>20000</v>
+      </c>
     </row>
-    <row r="3" ht="112.5" customHeight="1">
+    <row r="3" spans="1:26" ht="112.5" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="E3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="24">
+        <v>10000</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -3964,34 +4887,55 @@
       <c r="Y3" s="14"/>
       <c r="Z3" s="14"/>
     </row>
-    <row r="4" ht="120.0" customHeight="1">
+    <row r="4" spans="1:26" ht="120" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="23">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="14.25">
       <c r="A5" s="14"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -4976,9 +5920,258 @@
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6196887-A6AA-44C7-AE73-A408AE87AB89}">
+  <dimension ref="A2:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="126" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="120" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="170.25" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="B9" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="B10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25">
+      <c r="B11" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25">
+      <c r="B12" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1"/>
+    <row r="14" spans="1:11" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25">
+      <c r="B15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25">
+      <c r="B16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" ht="17.25">
+      <c r="B17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="2:6" ht="17.25">
+      <c r="B18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="2:6" ht="17.25">
+      <c r="B19" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>